--- a/data/negative_signals/Indirectly connected (A-X-B) - Propafenone - Bullous eruptions.xlsx
+++ b/data/negative_signals/Indirectly connected (A-X-B) - Propafenone - Bullous eruptions.xlsx
@@ -191,25 +191,25 @@
     <t>Disorders</t>
   </si>
   <si>
-    <t>118522754</t>
+    <t>78840245</t>
+  </si>
+  <si>
+    <t>does not treat</t>
+  </si>
+  <si>
+    <t>53882305</t>
+  </si>
+  <si>
+    <t>is administered to</t>
+  </si>
+  <si>
+    <t>52296492</t>
   </si>
   <si>
     <t>treats</t>
   </si>
   <si>
-    <t>143108283</t>
-  </si>
-  <si>
-    <t>does not treat</t>
-  </si>
-  <si>
-    <t>120178617</t>
-  </si>
-  <si>
-    <t>is administered to</t>
-  </si>
-  <si>
-    <t>117459011</t>
+    <t>51266807</t>
   </si>
   <si>
     <t>is process of</t>
@@ -221,13 +221,13 @@
     <t>pulmonary edema</t>
   </si>
   <si>
-    <t>82392858</t>
+    <t>16149502</t>
   </si>
   <si>
     <t>indicates</t>
   </si>
   <si>
-    <t>121833297</t>
+    <t>55291627</t>
   </si>
   <si>
     <t>coexists with</t>
@@ -239,10 +239,10 @@
     <t>woman</t>
   </si>
   <si>
-    <t>172887680</t>
-  </si>
-  <si>
-    <t>120547375</t>
+    <t>106667975</t>
+  </si>
+  <si>
+    <t>54216638</t>
   </si>
   <si>
     <t>301179</t>
@@ -251,16 +251,16 @@
     <t>child</t>
   </si>
   <si>
-    <t>137214474</t>
-  </si>
-  <si>
-    <t>139762529</t>
-  </si>
-  <si>
-    <t>128377318</t>
-  </si>
-  <si>
-    <t>136332181</t>
+    <t>73375073</t>
+  </si>
+  <si>
+    <t>62351085</t>
+  </si>
+  <si>
+    <t>70813264</t>
+  </si>
+  <si>
+    <t>69987932</t>
   </si>
   <si>
     <t>684679</t>
@@ -269,13 +269,13 @@
     <t>infant, newborn</t>
   </si>
   <si>
-    <t>158238042</t>
-  </si>
-  <si>
-    <t>172234393</t>
-  </si>
-  <si>
-    <t>122056665</t>
+    <t>106044284</t>
+  </si>
+  <si>
+    <t>91943864</t>
+  </si>
+  <si>
+    <t>55517824</t>
   </si>
   <si>
     <t>650553</t>
@@ -284,10 +284,82 @@
     <t>infant</t>
   </si>
   <si>
-    <t>122414339</t>
-  </si>
-  <si>
-    <t>144464660</t>
+    <t>56006792</t>
+  </si>
+  <si>
+    <t>78122755</t>
+  </si>
+  <si>
+    <t>4033983</t>
+  </si>
+  <si>
+    <t>pharmaceutical preparations</t>
+  </si>
+  <si>
+    <t>71291719</t>
+  </si>
+  <si>
+    <t>interacts with</t>
+  </si>
+  <si>
+    <t>86728147</t>
+  </si>
+  <si>
+    <t>inhibits</t>
+  </si>
+  <si>
+    <t>58673740</t>
+  </si>
+  <si>
+    <t>116868379</t>
+  </si>
+  <si>
+    <t>is a</t>
+  </si>
+  <si>
+    <t>67870347</t>
+  </si>
+  <si>
+    <t>does not stimulate</t>
+  </si>
+  <si>
+    <t>67496657</t>
+  </si>
+  <si>
+    <t>is compared with</t>
+  </si>
+  <si>
+    <t>39424223</t>
+  </si>
+  <si>
+    <t>is ingredient of</t>
+  </si>
+  <si>
+    <t>51457155</t>
+  </si>
+  <si>
+    <t>78583321</t>
+  </si>
+  <si>
+    <t>stimulates</t>
+  </si>
+  <si>
+    <t>67496711</t>
+  </si>
+  <si>
+    <t>is lower than</t>
+  </si>
+  <si>
+    <t>90745027</t>
+  </si>
+  <si>
+    <t>65903521</t>
+  </si>
+  <si>
+    <t>76350720</t>
+  </si>
+  <si>
+    <t>causes</t>
   </si>
   <si>
     <t>5648228</t>
@@ -299,97 +371,25 @@
     <t>Procedures</t>
   </si>
   <si>
-    <t>127597644</t>
-  </si>
-  <si>
-    <t>is compared with</t>
-  </si>
-  <si>
-    <t>117637217</t>
+    <t>51456473</t>
   </si>
   <si>
     <t>uses</t>
   </si>
   <si>
-    <t>153969932</t>
-  </si>
-  <si>
-    <t>153969964</t>
+    <t>87635962</t>
+  </si>
+  <si>
+    <t>87636025</t>
   </si>
   <si>
     <t>is higher than</t>
   </si>
   <si>
-    <t>132508592</t>
-  </si>
-  <si>
-    <t>4033983</t>
-  </si>
-  <si>
-    <t>pharmaceutical preparations</t>
-  </si>
-  <si>
-    <t>117637955</t>
-  </si>
-  <si>
-    <t>is a</t>
-  </si>
-  <si>
-    <t>133967257</t>
-  </si>
-  <si>
-    <t>156935917</t>
-  </si>
-  <si>
-    <t>132362907</t>
-  </si>
-  <si>
-    <t>interacts with</t>
-  </si>
-  <si>
-    <t>153151375</t>
-  </si>
-  <si>
-    <t>inhibits</t>
-  </si>
-  <si>
-    <t>183074900</t>
-  </si>
-  <si>
-    <t>137705022</t>
-  </si>
-  <si>
-    <t>142835219</t>
-  </si>
-  <si>
-    <t>stimulates</t>
-  </si>
-  <si>
-    <t>105776074</t>
-  </si>
-  <si>
-    <t>is ingredient of</t>
-  </si>
-  <si>
-    <t>134255498</t>
-  </si>
-  <si>
-    <t>does not stimulate</t>
-  </si>
-  <si>
-    <t>121394299</t>
-  </si>
-  <si>
-    <t>133967297</t>
-  </si>
-  <si>
-    <t>is lower than</t>
-  </si>
-  <si>
-    <t>142812784</t>
-  </si>
-  <si>
-    <t>causes</t>
+    <t>61201812</t>
+  </si>
+  <si>
+    <t>66163822</t>
   </si>
 </sst>
 </file>
@@ -727,7 +727,7 @@
         <v>75</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s">
         <v>76</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -771,19 +771,19 @@
         <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M5" t="s">
         <v>80</v>
       </c>
       <c r="N5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O5" t="s">
         <v>81</v>
       </c>
       <c r="P5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q5" t="s">
         <v>82</v>
@@ -827,7 +827,7 @@
         <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M6" t="s">
         <v>86</v>
@@ -877,7 +877,7 @@
         <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M7" t="s">
         <v>91</v>
@@ -906,7 +906,7 @@
         <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
         <v>56</v>
@@ -918,39 +918,87 @@
         <v>58</v>
       </c>
       <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
         <v>95</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>96</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>97</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>98</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" t="s">
         <v>99</v>
       </c>
-      <c r="P8" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>100</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>101</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>102</v>
       </c>
-      <c r="T8" t="s">
-        <v>60</v>
+      <c r="U8" t="s">
+        <v>103</v>
+      </c>
+      <c r="V8" t="s">
+        <v>104</v>
+      </c>
+      <c r="W8" t="s">
+        <v>105</v>
+      </c>
+      <c r="X8" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
@@ -962,13 +1010,13 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="H9" t="s">
         <v>56</v>
@@ -980,82 +1028,34 @@
         <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="M9" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="N9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="O9" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="P9" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="Q9" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="R9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="S9" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="T9" t="s">
-        <v>112</v>
-      </c>
-      <c r="U9" t="s">
-        <v>113</v>
-      </c>
-      <c r="V9" t="s">
-        <v>106</v>
-      </c>
-      <c r="W9" t="s">
-        <v>114</v>
-      </c>
-      <c r="X9" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>124</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
